--- a/Original Excel Files/DA-DC.xlsx
+++ b/Original Excel Files/DA-DC.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A832E2CF-B96C-44D1-8CC6-5A7AE118518C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -285,7 +286,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -336,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -352,6 +353,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,6 +363,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -409,7 +414,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,9 +447,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,6 +499,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -652,17 +691,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A4:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -677,7 +732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -692,400 +747,413 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1983</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1957</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D13" s="3">
-        <v>1983</v>
+        <v>2006</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2002</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1926</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1958</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2004</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2003</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="6">
         <v>1957</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="3">
-        <v>2006</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="3">
-        <v>2002</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1957</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="E26" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" t="s">
-        <v>85</v>
-      </c>
-      <c r="F40" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1926</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" t="s">
-        <v>72</v>
-      </c>
-      <c r="F46" t="s">
-        <v>73</v>
-      </c>
-      <c r="G46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>50</v>
-      </c>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1994</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="3">
-        <v>1958</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="3">
-        <v>2004</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A49" s="1"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="3">
-        <v>2003</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" s="3">
-        <v>1994</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G51">
+    <sortCondition ref="A1:A51"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1097,7 +1165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Original Excel Files/DA-DC.xlsx
+++ b/Original Excel Files/DA-DC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A832E2CF-B96C-44D1-8CC6-5A7AE118518C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CDE086-E659-4219-B8B2-3A0581E05617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,17 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>DA130 .A8</t>
   </si>
   <si>
-    <t>Ashley</t>
-  </si>
-  <si>
-    <t>Maurice</t>
-  </si>
-  <si>
     <t>1961 H</t>
   </si>
   <si>
@@ -37,12 +31,6 @@
     <t>DA435 .M14 1880a</t>
   </si>
   <si>
-    <t>Macaulay</t>
-  </si>
-  <si>
-    <t>Thomas B.</t>
-  </si>
-  <si>
     <t>1880 H</t>
   </si>
   <si>
@@ -64,12 +52,6 @@
     <t>DA470 .S58</t>
   </si>
   <si>
-    <t>Smellie</t>
-  </si>
-  <si>
-    <t>K.B.</t>
-  </si>
-  <si>
     <t>1962 H</t>
   </si>
   <si>
@@ -79,66 +61,42 @@
     <t>DA30 .M8393 1938</t>
   </si>
   <si>
-    <t>Morton, A. L.</t>
-  </si>
-  <si>
     <t>A People's History of England</t>
   </si>
   <si>
     <t>DA32 .A1 C3</t>
   </si>
   <si>
-    <t>Cantor, Norman F. and Werthman, Michael S.</t>
-  </si>
-  <si>
     <t>The English Tradition</t>
   </si>
   <si>
     <t>DA334 .M8 K46 1983</t>
   </si>
   <si>
-    <t>Kenny, Anthony</t>
-  </si>
-  <si>
     <t>Thomas More</t>
   </si>
   <si>
     <t>DA355 .N4 1957</t>
   </si>
   <si>
-    <t>Neale, J.E.</t>
-  </si>
-  <si>
     <t>Queen Elizabeth I: A Biography</t>
   </si>
   <si>
     <t>DA685 .S7 S68 2006</t>
   </si>
   <si>
-    <t>Rowston, Guy</t>
-  </si>
-  <si>
     <t>Southwark Cathedral</t>
   </si>
   <si>
     <t>DB2042 .G4 F33 2002</t>
   </si>
   <si>
-    <t>ed. Benes, Zdenek and Kural, Vaclav</t>
-  </si>
-  <si>
     <t>Facing History: The Evolution of Czech-German Relations in the Czech Provinces, 1848-1948</t>
   </si>
   <si>
     <t>DC38 .G85</t>
   </si>
   <si>
-    <t>Guerard</t>
-  </si>
-  <si>
-    <t>Albert</t>
-  </si>
-  <si>
     <t>1959 H</t>
   </si>
   <si>
@@ -148,12 +106,6 @@
     <t>DC203 .L85 1926</t>
   </si>
   <si>
-    <t>Ludwig</t>
-  </si>
-  <si>
-    <t>Emil</t>
-  </si>
-  <si>
     <t>1926 H</t>
   </si>
   <si>
@@ -163,66 +115,42 @@
     <t>DC203 .L85</t>
   </si>
   <si>
-    <t>Ludwig, Emil</t>
-  </si>
-  <si>
     <t>Napoleon</t>
   </si>
   <si>
     <t>DC256.8 .M4</t>
   </si>
   <si>
-    <t>Mellon, Stanley</t>
-  </si>
-  <si>
     <t>The Political uses of History</t>
   </si>
   <si>
     <t>DC342.8 .M64 L67</t>
   </si>
   <si>
-    <t>ed. Maclellan, Nic</t>
-  </si>
-  <si>
     <t>Louise Michel</t>
   </si>
   <si>
     <t>DC397 .J18 2001</t>
   </si>
   <si>
-    <t>Jackson, Julian</t>
-  </si>
-  <si>
     <t>France: The Dark Years 1940-1944</t>
   </si>
   <si>
     <t>DC70 .F513</t>
   </si>
   <si>
-    <t>Fichtenau, Heinrich</t>
-  </si>
-  <si>
     <t>The Carolingian Empire: The Age of Charlemange</t>
   </si>
   <si>
     <t>DC801 .C287 M46 1994</t>
   </si>
   <si>
-    <t>Mentzer, Raymond A.</t>
-  </si>
-  <si>
     <t>Blood and Belief</t>
   </si>
   <si>
     <t>DA990 .U46 M525 1999</t>
   </si>
   <si>
-    <t>Mitchell</t>
-  </si>
-  <si>
-    <t>George J.</t>
-  </si>
-  <si>
     <t>1999 H</t>
   </si>
   <si>
@@ -232,12 +160,6 @@
     <t>DC249 .L6 1934</t>
   </si>
   <si>
-    <t>Lockhart</t>
-  </si>
-  <si>
-    <t>J.G.</t>
-  </si>
-  <si>
     <t>1934 H</t>
   </si>
   <si>
@@ -247,12 +169,6 @@
     <t>DB2214 .H38 A5 1991</t>
   </si>
   <si>
-    <t>Havel</t>
-  </si>
-  <si>
-    <t>Vaclav</t>
-  </si>
-  <si>
     <t>1991 H</t>
   </si>
   <si>
@@ -271,16 +187,19 @@
     <t>DC150 .B85</t>
   </si>
   <si>
-    <t>Burke</t>
-  </si>
-  <si>
-    <t>Edmund</t>
-  </si>
-  <si>
     <t>1955 P</t>
   </si>
   <si>
     <t>Reflections on the Revolution in France</t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>Yr.</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -340,20 +259,20 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,461 +611,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:E51"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:E24"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="78.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1938</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1967</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1983</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1957</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1938</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1967</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1983</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1957</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2006</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2002</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1" t="s">
+      <c r="B17" s="6">
+        <v>1926</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="3">
-        <v>2006</v>
-      </c>
-      <c r="E13" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="B20" s="6">
+        <v>1958</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="6">
-        <v>2002</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="B21" s="6">
+        <v>2004</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1926</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2003</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1957</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1994</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1958</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="6">
-        <v>2004</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="6">
-        <v>2003</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1957</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1994</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
+      <c r="B47" s="5"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G51">
-    <sortCondition ref="A1:A51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E49">
+    <sortCondition ref="A1:A49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
